--- a/20210501 Tennis Court Detection Test Results.xlsx
+++ b/20210501 Tennis Court Detection Test Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a00ae3f07a1e700d/Documents/01_Repo/opencv-play/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="378" documentId="8_{2D7FC5CA-3D0C-4B5A-B7FB-375324B2700F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7FBEA8C6-620E-4157-B153-9AD689652195}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="8_{2D7FC5CA-3D0C-4B5A-B7FB-375324B2700F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AC1B8EFC-B769-462A-BA2B-547980434521}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>Comments</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Set2 positives are all zoomed in on a single tennis court. Images were scaled/cropped and converted to BW</t>
+  </si>
+  <si>
+    <t>Set2b: manually added more pos and negs. Also processed images to duplicate each multiple times with small rotations</t>
   </si>
 </sst>
 </file>
@@ -1096,6 +1099,9 @@
         <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B11)</f>
         <v>0</v>
       </c>
+      <c r="P11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="15">

--- a/20210501 Tennis Court Detection Test Results.xlsx
+++ b/20210501 Tennis Court Detection Test Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a00ae3f07a1e700d/Documents/01_Repo/opencv-play/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="8_{2D7FC5CA-3D0C-4B5A-B7FB-375324B2700F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AC1B8EFC-B769-462A-BA2B-547980434521}"/>
+  <xr:revisionPtr revIDLastSave="404" documentId="8_{2D7FC5CA-3D0C-4B5A-B7FB-375324B2700F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1C06A4E7-DC47-4EE0-84CE-702295D020CA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
   <si>
     <t>Comments</t>
   </si>
@@ -171,7 +171,19 @@
     <t>Set2 positives are all zoomed in on a single tennis court. Images were scaled/cropped and converted to BW</t>
   </si>
   <si>
-    <t>Set2b: manually added more pos and negs. Also processed images to duplicate each multiple times with small rotations</t>
+    <t>Set2b</t>
+  </si>
+  <si>
+    <t>Reduce image sizes to 20x40</t>
+  </si>
+  <si>
+    <t>Set2b: manually added more pos and negs. Also processed images to duplicate each multiple times with small rotations. Positive image usage % set to 90% due to BadArgumentError (?). Image dimensions 60 x 114</t>
+  </si>
+  <si>
+    <t>MinNeighbors</t>
+  </si>
+  <si>
+    <t>Check Rotations?</t>
   </si>
 </sst>
 </file>
@@ -255,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +307,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1E8F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -430,6 +454,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -439,6 +470,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF1E8F8"/>
       <color rgb="FFE4F6FC"/>
       <color rgb="FF525252"/>
       <color rgb="FF1999C1"/>
@@ -448,7 +480,6 @@
       <color rgb="FFFAC1B8"/>
       <color rgb="FFC5F3CD"/>
       <color rgb="FFE6F1DF"/>
-      <color rgb="FFFCEFD8"/>
     </mruColors>
   </colors>
   <extLst>
@@ -808,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95065D9-21E2-4631-8E00-95D37F7A67C6}">
-  <dimension ref="B1:P15"/>
+  <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -816,26 +847,27 @@
   <cols>
     <col min="1" max="1" width="2.6328125" customWidth="1"/>
     <col min="2" max="2" width="3.6328125" customWidth="1"/>
-    <col min="3" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="11" width="15.6328125" customWidth="1"/>
-    <col min="12" max="15" width="12.6328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="40.6328125" customWidth="1" collapsed="1"/>
-    <col min="17" max="19" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="13" width="15.6328125" customWidth="1"/>
+    <col min="14" max="17" width="12.6328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="40.6328125" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:18" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E4" s="20" t="s">
         <v>20</v>
       </c>
@@ -843,22 +875,24 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E6" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="24"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -883,29 +917,35 @@
       <c r="I7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="M7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="N7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="O7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="P7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="Q7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="R7" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <v>1</v>
       </c>
@@ -930,35 +970,37 @@
       <c r="I8" s="27">
         <v>32</v>
       </c>
-      <c r="J8" s="23">
-        <f>IFERROR(L8/(L8+M8),"-")</f>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="23">
+        <f>IFERROR(N8/(N8+O8),"-")</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="K8" s="23">
-        <f>IFERROR(L8/(L8+O8),"-")</f>
+      <c r="M8" s="23">
+        <f>IFERROR(N8/(N8+Q8),"-")</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="L8" s="22">
+      <c r="N8" s="22">
         <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B8)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="22">
+      <c r="O8" s="22">
         <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B8)</f>
         <v>5</v>
       </c>
-      <c r="N8" s="22">
+      <c r="P8" s="22">
         <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B8)</f>
         <v>4</v>
       </c>
-      <c r="O8" s="22">
+      <c r="Q8" s="22">
         <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B8)</f>
         <v>7</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <v>2</v>
       </c>
@@ -983,35 +1025,37 @@
       <c r="I9" s="27">
         <v>24</v>
       </c>
-      <c r="J9" s="23" t="str">
-        <f t="shared" ref="J9:J15" si="0">IFERROR(L9/(L9+M9),"-")</f>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="23" t="str">
+        <f t="shared" ref="L9:L15" si="0">IFERROR(N9/(N9+O9),"-")</f>
         <v>-</v>
       </c>
-      <c r="K9" s="23">
-        <f t="shared" ref="K9:K15" si="1">IFERROR(L9/(L9+O9),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
+      <c r="M9" s="23">
+        <f t="shared" ref="M9:M15" si="1">IFERROR(N9/(N9+Q9),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
         <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="22">
+      <c r="O9" s="22">
         <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B9)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="22">
+      <c r="P9" s="22">
         <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B9)</f>
         <v>10</v>
       </c>
-      <c r="O9" s="22">
+      <c r="Q9" s="22">
         <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B9)</f>
         <v>18</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="15">
         <v>3</v>
       </c>
@@ -1036,74 +1080,86 @@
       <c r="I10" s="27">
         <v>48</v>
       </c>
-      <c r="J10" s="23" t="str">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="K10" s="23" t="str">
+      <c r="M10" s="23" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="L10" s="22">
+      <c r="N10" s="22">
         <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B10)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="22">
+      <c r="O10" s="22">
         <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="22">
+      <c r="P10" s="22">
         <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="22">
+      <c r="Q10" s="22">
         <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B10)</f>
         <v>0</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
         <v>4</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="23" t="str">
+      <c r="G11" s="27">
+        <v>20</v>
+      </c>
+      <c r="H11" s="27">
+        <v>24</v>
+      </c>
+      <c r="I11" s="27">
+        <v>46</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="K11" s="23" t="str">
+      <c r="M11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="L11" s="22">
+      <c r="N11" s="22">
         <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B11)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="22">
+      <c r="O11" s="22">
         <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="22">
+      <c r="P11" s="22">
         <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B11)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="22">
+      <c r="Q11" s="22">
         <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B11)</f>
         <v>0</v>
       </c>
-      <c r="P11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="R11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="15">
         <v>5</v>
       </c>
@@ -1114,32 +1170,37 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="23" t="str">
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="23" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="K12" s="23" t="str">
+      <c r="M12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="L12" s="22">
+      <c r="N12" s="22">
         <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B12)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="22">
+      <c r="O12" s="22">
         <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B12)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="22">
+      <c r="P12" s="22">
         <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B12)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="22">
+      <c r="Q12" s="22">
         <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="R12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="15">
         <v>6</v>
       </c>
@@ -1150,32 +1211,34 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="23" t="str">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="K13" s="23" t="str">
+      <c r="M13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="L13" s="22">
+      <c r="N13" s="22">
         <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B13)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="22">
+      <c r="O13" s="22">
         <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="22">
+      <c r="P13" s="22">
         <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B13)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="22">
+      <c r="Q13" s="22">
         <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="15">
         <v>7</v>
       </c>
@@ -1186,32 +1249,34 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="23" t="str">
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="23" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="K14" s="23" t="str">
+      <c r="M14" s="23" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="L14" s="22">
+      <c r="N14" s="22">
         <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B14)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="22">
+      <c r="O14" s="22">
         <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="22">
+      <c r="P14" s="22">
         <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B14)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="22">
+      <c r="Q14" s="22">
         <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="15">
         <v>8</v>
       </c>
@@ -1222,27 +1287,29 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="23" t="str">
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="23" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="K15" s="23" t="str">
+      <c r="M15" s="23" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="L15" s="22">
+      <c r="N15" s="22">
         <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B15)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="22">
+      <c r="O15" s="22">
         <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="22">
+      <c r="P15" s="22">
         <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B15)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="22">
+      <c r="Q15" s="22">
         <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B15)</f>
         <v>0</v>
       </c>
@@ -1257,9 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67C8FC6-D7B6-46A9-9A06-D0E7B7D96350}">
   <dimension ref="B1:Y169"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/20210501 Tennis Court Detection Test Results.xlsx
+++ b/20210501 Tennis Court Detection Test Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a00ae3f07a1e700d/Documents/01_Repo/opencv-play/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a00ae3f07a1e700d/Documents/01_Repo/Tennis-Court-Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="404" documentId="8_{2D7FC5CA-3D0C-4B5A-B7FB-375324B2700F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1C06A4E7-DC47-4EE0-84CE-702295D020CA}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="8_{2D7FC5CA-3D0C-4B5A-B7FB-375324B2700F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B5F84D1A-C793-43BC-877E-27B5AB16EC41}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Comparison" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t>Comments</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>Neg_count</t>
-  </si>
-  <si>
-    <t>Pos_count</t>
   </si>
   <si>
     <t>Stages</t>
@@ -147,13 +141,7 @@
     <t>Actual Negative</t>
   </si>
   <si>
-    <t>Box drawing not accurate</t>
-  </si>
-  <si>
     <t>All training images were scaled and cropped to be same dimensions (720 W x 360 H). Scaling seemed to make them more blurry</t>
-  </si>
-  <si>
-    <t>Images Set</t>
   </si>
   <si>
     <t>Set1</t>
@@ -183,7 +171,28 @@
     <t>MinNeighbors</t>
   </si>
   <si>
-    <t>Check Rotations?</t>
+    <t>Neg_orig</t>
+  </si>
+  <si>
+    <t>Pos_orig</t>
+  </si>
+  <si>
+    <t>Neg_adj</t>
+  </si>
+  <si>
+    <t>cascade4.xml</t>
+  </si>
+  <si>
+    <t>CheckRotations</t>
+  </si>
+  <si>
+    <t>CheckDilation</t>
+  </si>
+  <si>
+    <t>Img_Set</t>
+  </si>
+  <si>
+    <t>Detection parameters and features</t>
   </si>
 </sst>
 </file>
@@ -323,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -383,12 +392,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -431,9 +490,6 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,9 +500,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -461,6 +514,21 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,8 +538,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE4F6FC"/>
       <color rgb="FFF1E8F8"/>
-      <color rgb="FFE4F6FC"/>
       <color rgb="FF525252"/>
       <color rgb="FF1999C1"/>
       <color rgb="FF062490"/>
@@ -497,16 +565,65 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>702733</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>188494</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1706033</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA08990-F982-4000-8A51-1FB0C328752A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13423900" y="482600"/>
+          <a:ext cx="1359958" cy="677445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>436033</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10694</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -529,8 +646,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5842000" y="584199"/>
-          <a:ext cx="1363133" cy="645695"/>
+          <a:off x="6108700" y="600074"/>
+          <a:ext cx="1363133" cy="664745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -839,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95065D9-21E2-4631-8E00-95D37F7A67C6}">
-  <dimension ref="B1:R15"/>
+  <dimension ref="B1:U19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -847,482 +964,661 @@
   <cols>
     <col min="1" max="1" width="2.6328125" customWidth="1"/>
     <col min="2" max="2" width="3.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="13" width="15.6328125" customWidth="1"/>
-    <col min="14" max="17" width="12.6328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="40.6328125" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="9" width="10.6328125" customWidth="1"/>
+    <col min="10" max="11" width="15.6328125" customWidth="1"/>
+    <col min="12" max="14" width="14.6328125" customWidth="1"/>
+    <col min="15" max="16" width="15.6328125" customWidth="1"/>
+    <col min="17" max="20" width="12.6328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="40.6328125" customWidth="1" collapsed="1"/>
+    <col min="22" max="24" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:21" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="B1" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="E4" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="E6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="E6" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="J7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="K7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="35" t="s">
+      <c r="L7" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="T7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="U7" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="26">
+        <v>15</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="25">
         <v>116</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>55</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="25"/>
+      <c r="H8" s="26">
+        <v>55</v>
+      </c>
+      <c r="I8" s="26">
         <v>20</v>
       </c>
-      <c r="H8" s="27">
+      <c r="J8" s="26">
         <v>32</v>
       </c>
-      <c r="I8" s="27">
+      <c r="K8" s="26">
         <v>32</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="23">
-        <f>IFERROR(N8/(N8+O8),"-")</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M8" s="23">
-        <f>IFERROR(N8/(N8+Q8),"-")</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="N8" s="22">
-        <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B8)</f>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="23">
+        <f>IFERROR(Q8/(Q8+R8),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <f>IFERROR(Q8/(Q8+T8),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <f>SUMIFS(Test_Logs!F$9:F$113,Test_Logs!$B$9:$B$113,$B8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <f>SUMIFS(Test_Logs!G$9:G$113,Test_Logs!$B$9:$B$113,$B8)</f>
+        <v>1</v>
+      </c>
+      <c r="S8" s="22">
+        <f>SUMIFS(Test_Logs!H$9:H$113,Test_Logs!$B$9:$B$113,$B8)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="22">
+        <f>SUMIFS(Test_Logs!I$9:I$113,Test_Logs!$B$9:$B$113,$B8)</f>
+        <v>7</v>
+      </c>
+      <c r="U8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B9" s="15">
+        <f>B8+1</f>
         <v>2</v>
       </c>
-      <c r="O8" s="22">
-        <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B8)</f>
-        <v>5</v>
-      </c>
-      <c r="P8" s="22">
-        <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B8)</f>
-        <v>4</v>
-      </c>
-      <c r="Q8" s="22">
-        <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B8)</f>
-        <v>7</v>
-      </c>
-      <c r="R8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="15">
-        <v>2</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="26">
+        <v>16</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="25">
         <v>116</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>55</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="25"/>
+      <c r="H9" s="26">
+        <v>55</v>
+      </c>
+      <c r="I9" s="26">
         <v>20</v>
       </c>
-      <c r="H9" s="27">
+      <c r="J9" s="26">
         <v>48</v>
       </c>
-      <c r="I9" s="27">
+      <c r="K9" s="26">
         <v>24</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="23" t="str">
-        <f t="shared" ref="L9:L15" si="0">IFERROR(N9/(N9+O9),"-")</f>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="23" t="str">
+        <f t="shared" ref="O9:O19" si="0">IFERROR(Q9/(Q9+R9),"-")</f>
         <v>-</v>
       </c>
-      <c r="M9" s="23">
-        <f t="shared" ref="M9:M15" si="1">IFERROR(N9/(N9+Q9),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="22">
-        <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B9)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="22">
-        <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B9)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="22">
-        <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B9)</f>
-        <v>10</v>
+      <c r="P9" s="23" t="str">
+        <f t="shared" ref="P9:P19" si="1">IFERROR(Q9/(Q9+T9),"-")</f>
+        <v>-</v>
       </c>
       <c r="Q9" s="22">
-        <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B9)</f>
-        <v>18</v>
-      </c>
-      <c r="R9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+        <f>SUMIFS(Test_Logs!F$9:F$113,Test_Logs!$B$9:$B$113,$B9)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
+        <f>SUMIFS(Test_Logs!G$9:G$113,Test_Logs!$B$9:$B$113,$B9)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="22">
+        <f>SUMIFS(Test_Logs!H$9:H$113,Test_Logs!$B$9:$B$113,$B9)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="22">
+        <f>SUMIFS(Test_Logs!I$9:I$113,Test_Logs!$B$9:$B$113,$B9)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="15">
+        <f t="shared" ref="B10:B19" si="2">B9+1</f>
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="26">
+        <v>39</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="25">
         <v>44</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>44</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="25"/>
+      <c r="H10" s="26">
+        <v>44</v>
+      </c>
+      <c r="I10" s="26">
         <v>20</v>
       </c>
-      <c r="H10" s="27">
+      <c r="J10" s="26">
         <v>24</v>
       </c>
-      <c r="I10" s="27">
+      <c r="K10" s="26">
         <v>48</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="23" t="str">
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="M10" s="23" t="str">
+      <c r="P10" s="23" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N10" s="22">
-        <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B10)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="22">
-        <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B10)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="22">
-        <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B10)</f>
-        <v>0</v>
-      </c>
       <c r="Q10" s="22">
-        <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B10)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+        <f>SUMIFS(Test_Logs!F$9:F$113,Test_Logs!$B$9:$B$113,$B10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="22">
+        <f>SUMIFS(Test_Logs!G$9:G$113,Test_Logs!$B$9:$B$113,$B10)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="22">
+        <f>SUMIFS(Test_Logs!H$9:H$113,Test_Logs!$B$9:$B$113,$B10)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="22">
+        <f>SUMIFS(Test_Logs!I$9:I$113,Test_Logs!$B$9:$B$113,$B10)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27">
+      <c r="C11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26">
         <v>20</v>
       </c>
-      <c r="H11" s="27">
+      <c r="J11" s="26">
         <v>24</v>
       </c>
-      <c r="I11" s="27">
+      <c r="K11" s="26">
         <v>46</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="23" t="str">
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="M11" s="23" t="str">
+      <c r="P11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N11" s="22">
-        <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B11)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="22">
-        <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B11)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="22">
-        <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B11)</f>
-        <v>0</v>
-      </c>
       <c r="Q11" s="22">
-        <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B11)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+        <f>SUMIFS(Test_Logs!F$9:F$113,Test_Logs!$B$9:$B$113,$B11)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
+        <f>SUMIFS(Test_Logs!G$9:G$113,Test_Logs!$B$9:$B$113,$B11)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="22">
+        <f>SUMIFS(Test_Logs!H$9:H$113,Test_Logs!$B$9:$B$113,$B11)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="22">
+        <f>SUMIFS(Test_Logs!I$9:I$113,Test_Logs!$B$9:$B$113,$B11)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="15">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="23" t="str">
+      <c r="D12" s="30"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="23" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="M12" s="23" t="str">
+      <c r="P12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N12" s="22">
-        <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B12)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="22">
-        <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B12)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="22">
-        <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B12)</f>
-        <v>0</v>
-      </c>
       <c r="Q12" s="22">
-        <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+        <f>SUMIFS(Test_Logs!F$9:F$113,Test_Logs!$B$9:$B$113,$B12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="22">
+        <f>SUMIFS(Test_Logs!G$9:G$113,Test_Logs!$B$9:$B$113,$B12)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="22">
+        <f>SUMIFS(Test_Logs!H$9:H$113,Test_Logs!$B$9:$B$113,$B12)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="22">
+        <f>SUMIFS(Test_Logs!I$9:I$113,Test_Logs!$B$9:$B$113,$B12)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="15">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="23" t="str">
+      <c r="D13" s="30"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="M13" s="23" t="str">
+      <c r="P13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N13" s="22">
-        <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B13)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="22">
-        <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B13)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="22">
-        <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B13)</f>
-        <v>0</v>
-      </c>
       <c r="Q13" s="22">
-        <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+        <f>SUMIFS(Test_Logs!F$9:F$113,Test_Logs!$B$9:$B$113,$B13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="22">
+        <f>SUMIFS(Test_Logs!G$9:G$113,Test_Logs!$B$9:$B$113,$B13)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="22">
+        <f>SUMIFS(Test_Logs!H$9:H$113,Test_Logs!$B$9:$B$113,$B13)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="22">
+        <f>SUMIFS(Test_Logs!I$9:I$113,Test_Logs!$B$9:$B$113,$B13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="15">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="23" t="str">
-        <f t="shared" si="0"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="23" t="str">
+        <f t="shared" ref="O14:O19" si="3">IFERROR(Q14/(Q14+R14),"-")</f>
         <v>-</v>
       </c>
-      <c r="M14" s="23" t="str">
-        <f t="shared" si="1"/>
+      <c r="P14" s="23" t="str">
+        <f t="shared" ref="P14:P19" si="4">IFERROR(Q14/(Q14+T14),"-")</f>
         <v>-</v>
       </c>
-      <c r="N14" s="22">
-        <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B14)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="22">
-        <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B14)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="22">
-        <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="22">
-        <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" s="15">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C15" s="15"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="23" t="str">
-        <f t="shared" si="0"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="M15" s="23" t="str">
-        <f t="shared" si="1"/>
+      <c r="P15" s="23" t="str">
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N15" s="22">
-        <f>SUMIFS(Test_Logs!F$9:F$135,Test_Logs!$B$9:$B$135,$B15)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="22">
-        <f>SUMIFS(Test_Logs!G$9:G$135,Test_Logs!$B$9:$B$135,$B15)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="22">
-        <f>SUMIFS(Test_Logs!H$9:H$135,Test_Logs!$B$9:$B$135,$B15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="22">
-        <f>SUMIFS(Test_Logs!I$9:I$135,Test_Logs!$B$9:$B$135,$B15)</f>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B16" s="15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="P16" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B17" s="15">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="P17" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B18" s="15">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="P18" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Q18" s="22">
+        <f>SUMIFS(Test_Logs!F$9:F$113,Test_Logs!$B$9:$B$113,$B18)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="22">
+        <f>SUMIFS(Test_Logs!G$9:G$113,Test_Logs!$B$9:$B$113,$B18)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="22">
+        <f>SUMIFS(Test_Logs!H$9:H$113,Test_Logs!$B$9:$B$113,$B18)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="22">
+        <f>SUMIFS(Test_Logs!I$9:I$113,Test_Logs!$B$9:$B$113,$B18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B19" s="15">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="P19" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Q19" s="22">
+        <f>SUMIFS(Test_Logs!F$9:F$113,Test_Logs!$B$9:$B$113,$B19)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="22">
+        <f>SUMIFS(Test_Logs!G$9:G$113,Test_Logs!$B$9:$B$113,$B19)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="22">
+        <f>SUMIFS(Test_Logs!H$9:H$113,Test_Logs!$B$9:$B$113,$B19)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="22">
+        <f>SUMIFS(Test_Logs!I$9:I$113,Test_Logs!$B$9:$B$113,$B19)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67C8FC6-D7B6-46A9-9A06-D0E7B7D96350}">
-  <dimension ref="B1:Y169"/>
+  <dimension ref="B1:Y147"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -1341,7 +1637,7 @@
   <sheetData>
     <row r="1" spans="2:25" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4"/>
     </row>
@@ -1393,34 +1689,34 @@
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>0</v>
@@ -1444,16 +1740,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="16">
         <v>0</v>
@@ -1462,19 +1758,17 @@
         <v>0</v>
       </c>
       <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29">
+        <v>3</v>
+      </c>
+      <c r="J9" s="38">
         <f>IFERROR(F9/(F9+G9),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="29">
+        <v>0</v>
+      </c>
+      <c r="K9" s="38">
         <f>IFERROR(F9/(F9+I9),0)</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L9" s="8"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1494,37 +1788,35 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="10">
         <v>2</v>
       </c>
       <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
         <v>1</v>
       </c>
-      <c r="G10" s="16">
-        <v>3</v>
-      </c>
       <c r="H10" s="17">
         <v>0</v>
       </c>
       <c r="I10" s="17">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29">
-        <f t="shared" ref="J10:J135" si="0">IFERROR(F10/(F10+G10),0)</f>
-        <v>0.25</v>
-      </c>
-      <c r="K10" s="29">
-        <f t="shared" ref="K10:K135" si="1">IFERROR(F10/(F10+I10),0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J10" s="38">
+        <f t="shared" ref="J10:J29" si="0">IFERROR(F10/(F10+G10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" ref="K10:K29" si="1">IFERROR(F10/(F10+I10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="8"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1544,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="10">
         <v>2</v>
@@ -1564,11 +1856,11 @@
       <c r="I11" s="17">
         <v>2</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1592,31 +1884,23 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E12" s="10">
         <v>2</v>
       </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>2</v>
-      </c>
-      <c r="J12" s="29">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1640,31 +1924,23 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E13" s="10">
         <v>2</v>
       </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
-        <v>2</v>
-      </c>
-      <c r="J13" s="29">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1688,31 +1964,23 @@
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0</v>
-      </c>
-      <c r="J14" s="29">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1736,31 +2004,23 @@
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>2</v>
-      </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="J15" s="29">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1784,31 +2044,23 @@
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
       </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="29">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1832,31 +2084,23 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
       </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1880,31 +2124,23 @@
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>36</v>
-      </c>
       <c r="E18" s="10">
         <v>0</v>
       </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16">
-        <v>1</v>
-      </c>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1928,31 +2164,23 @@
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
       </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0</v>
-      </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
-      <c r="J19" s="29">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1976,31 +2204,23 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E20" s="10">
         <v>2</v>
       </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>2</v>
-      </c>
-      <c r="J20" s="29">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2024,31 +2244,23 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E21" s="10">
         <v>2</v>
       </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>2</v>
-      </c>
-      <c r="J21" s="29">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2072,31 +2284,23 @@
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E22" s="10">
         <v>2</v>
       </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17">
-        <v>2</v>
-      </c>
-      <c r="J22" s="29">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2120,31 +2324,23 @@
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E23" s="10">
         <v>2</v>
       </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
-        <v>2</v>
-      </c>
-      <c r="J23" s="29">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2168,31 +2364,23 @@
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16">
-        <v>1</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2216,31 +2404,23 @@
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
-        <v>1</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2264,31 +2444,23 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="E26" s="10">
         <v>0</v>
       </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
-        <v>1</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
-      <c r="J26" s="29">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2312,31 +2484,23 @@
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="E27" s="10">
         <v>0</v>
       </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <v>1</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="J27" s="29">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2360,31 +2524,23 @@
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>36</v>
-      </c>
       <c r="E28" s="10">
         <v>0</v>
       </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
-        <v>1</v>
-      </c>
-      <c r="I28" s="17">
-        <v>0</v>
-      </c>
-      <c r="J28" s="29">
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2408,31 +2564,23 @@
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E29" s="10">
         <v>1</v>
       </c>
-      <c r="F29" s="16">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
-        <v>1</v>
-      </c>
-      <c r="J29" s="29">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2456,32 +2604,24 @@
         <v>2</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E30" s="10">
         <v>2</v>
       </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
-        <v>2</v>
-      </c>
-      <c r="J30" s="29">
-        <f t="shared" ref="J30:J93" si="2">IFERROR(F30/(F30+G30),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="29">
-        <f t="shared" ref="K30:K93" si="3">IFERROR(F30/(F30+I30),0)</f>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="38">
+        <f t="shared" ref="J30:J113" si="2">IFERROR(F30/(F30+G30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="38">
+        <f t="shared" ref="K30:K113" si="3">IFERROR(F30/(F30+I30),0)</f>
         <v>0</v>
       </c>
       <c r="L30" s="8"/>
@@ -2504,31 +2644,23 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E31" s="10">
         <v>2</v>
       </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-      <c r="H31" s="16">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17">
-        <v>2</v>
-      </c>
-      <c r="J31" s="29">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2552,31 +2684,23 @@
         <v>2</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E32" s="10">
         <v>2</v>
       </c>
-      <c r="F32" s="16">
-        <v>0</v>
-      </c>
-      <c r="G32" s="16">
-        <v>0</v>
-      </c>
-      <c r="H32" s="16">
-        <v>0</v>
-      </c>
-      <c r="I32" s="17">
-        <v>2</v>
-      </c>
-      <c r="J32" s="29">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2600,31 +2724,23 @@
         <v>2</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="E33" s="10">
         <v>2</v>
       </c>
-      <c r="F33" s="16">
-        <v>0</v>
-      </c>
-      <c r="G33" s="16">
-        <v>0</v>
-      </c>
-      <c r="H33" s="16">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
-        <v>2</v>
-      </c>
-      <c r="J33" s="29">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2648,31 +2764,23 @@
         <v>2</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="E34" s="10">
         <v>0</v>
       </c>
-      <c r="F34" s="16">
-        <v>0</v>
-      </c>
-      <c r="G34" s="16">
-        <v>0</v>
-      </c>
-      <c r="H34" s="16">
-        <v>1</v>
-      </c>
-      <c r="I34" s="17">
-        <v>0</v>
-      </c>
-      <c r="J34" s="29">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2696,31 +2804,23 @@
         <v>2</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="E35" s="10">
         <v>0</v>
       </c>
-      <c r="F35" s="16">
-        <v>0</v>
-      </c>
-      <c r="G35" s="16">
-        <v>0</v>
-      </c>
-      <c r="H35" s="16">
-        <v>1</v>
-      </c>
-      <c r="I35" s="17">
-        <v>0</v>
-      </c>
-      <c r="J35" s="29">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2744,32 +2844,24 @@
         <v>2</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="E36" s="10">
         <v>0</v>
       </c>
-      <c r="F36" s="16">
-        <v>0</v>
-      </c>
-      <c r="G36" s="16">
-        <v>0</v>
-      </c>
-      <c r="H36" s="16">
-        <v>1</v>
-      </c>
-      <c r="I36" s="17">
-        <v>0</v>
-      </c>
-      <c r="J36" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="29">
-        <f t="shared" si="3"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="38">
+        <f t="shared" ref="J36:J99" si="4">IFERROR(F36/(F36+G36),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="38">
+        <f t="shared" ref="K36:K99" si="5">IFERROR(F36/(F36+I36),0)</f>
         <v>0</v>
       </c>
       <c r="L36" s="8"/>
@@ -2792,32 +2884,24 @@
         <v>2</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="E37" s="10">
         <v>0</v>
       </c>
-      <c r="F37" s="16">
-        <v>0</v>
-      </c>
-      <c r="G37" s="16">
-        <v>0</v>
-      </c>
-      <c r="H37" s="16">
-        <v>1</v>
-      </c>
-      <c r="I37" s="17">
-        <v>0</v>
-      </c>
-      <c r="J37" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="29">
-        <f t="shared" si="3"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L37" s="8"/>
@@ -2840,32 +2924,24 @@
         <v>2</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="28" t="s">
-        <v>36</v>
-      </c>
       <c r="E38" s="10">
         <v>0</v>
       </c>
-      <c r="F38" s="16">
-        <v>0</v>
-      </c>
-      <c r="G38" s="16">
-        <v>0</v>
-      </c>
-      <c r="H38" s="16">
-        <v>1</v>
-      </c>
-      <c r="I38" s="17">
-        <v>0</v>
-      </c>
-      <c r="J38" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="29">
-        <f t="shared" si="3"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L38" s="8"/>
@@ -2886,18 +2962,18 @@
     <row r="39" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B39" s="18"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="10"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="29">
-        <f t="shared" si="3"/>
+      <c r="J39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L39" s="8"/>
@@ -2918,18 +2994,18 @@
     <row r="40" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B40" s="18"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="10"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="29">
-        <f t="shared" si="3"/>
+      <c r="J40" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L40" s="8"/>
@@ -2950,18 +3026,18 @@
     <row r="41" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B41" s="18"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="10"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="17"/>
-      <c r="J41" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="29">
-        <f t="shared" si="3"/>
+      <c r="J41" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L41" s="8"/>
@@ -2982,18 +3058,18 @@
     <row r="42" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B42" s="18"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="10"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="17"/>
-      <c r="J42" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="29">
-        <f t="shared" si="3"/>
+      <c r="J42" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L42" s="8"/>
@@ -3014,18 +3090,18 @@
     <row r="43" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B43" s="18"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="10"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="17"/>
-      <c r="J43" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="29">
-        <f t="shared" si="3"/>
+      <c r="J43" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L43" s="8"/>
@@ -3046,18 +3122,18 @@
     <row r="44" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B44" s="18"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="10"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="29">
-        <f t="shared" si="3"/>
+      <c r="J44" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L44" s="8"/>
@@ -3078,18 +3154,18 @@
     <row r="45" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B45" s="18"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="10"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="29">
-        <f t="shared" si="3"/>
+      <c r="J45" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L45" s="8"/>
@@ -3110,18 +3186,18 @@
     <row r="46" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B46" s="18"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="10"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="29">
-        <f t="shared" si="3"/>
+      <c r="J46" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L46" s="8"/>
@@ -3142,18 +3218,18 @@
     <row r="47" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B47" s="18"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="10"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="29">
-        <f t="shared" si="3"/>
+      <c r="J47" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L47" s="8"/>
@@ -3174,18 +3250,18 @@
     <row r="48" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B48" s="18"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="10"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="17"/>
-      <c r="J48" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="29">
-        <f t="shared" si="3"/>
+      <c r="J48" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L48" s="8"/>
@@ -3206,18 +3282,18 @@
     <row r="49" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B49" s="18"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="D49" s="27"/>
       <c r="E49" s="10"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="17"/>
-      <c r="J49" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="29">
-        <f t="shared" si="3"/>
+      <c r="J49" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L49" s="8"/>
@@ -3238,18 +3314,18 @@
     <row r="50" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B50" s="18"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="10"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="17"/>
-      <c r="J50" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="29">
-        <f t="shared" si="3"/>
+      <c r="J50" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L50" s="8"/>
@@ -3270,18 +3346,18 @@
     <row r="51" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B51" s="18"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="10"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
       <c r="I51" s="17"/>
-      <c r="J51" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="29">
-        <f t="shared" si="3"/>
+      <c r="J51" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L51" s="8"/>
@@ -3302,18 +3378,18 @@
     <row r="52" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B52" s="18"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="10"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="17"/>
-      <c r="J52" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="29">
-        <f t="shared" si="3"/>
+      <c r="J52" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L52" s="8"/>
@@ -3334,18 +3410,18 @@
     <row r="53" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B53" s="18"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="10"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="17"/>
-      <c r="J53" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="29">
-        <f t="shared" si="3"/>
+      <c r="J53" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L53" s="8"/>
@@ -3366,18 +3442,18 @@
     <row r="54" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B54" s="18"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="10"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="17"/>
-      <c r="J54" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="29">
-        <f t="shared" si="3"/>
+      <c r="J54" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L54" s="8"/>
@@ -3398,18 +3474,18 @@
     <row r="55" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B55" s="18"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="10"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="17"/>
-      <c r="J55" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="29">
-        <f t="shared" si="3"/>
+      <c r="J55" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L55" s="8"/>
@@ -3430,18 +3506,18 @@
     <row r="56" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B56" s="18"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="10"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" s="17"/>
-      <c r="J56" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="29">
-        <f t="shared" si="3"/>
+      <c r="J56" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L56" s="8"/>
@@ -3462,18 +3538,18 @@
     <row r="57" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B57" s="18"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="10"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" s="17"/>
-      <c r="J57" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="29">
-        <f t="shared" si="3"/>
+      <c r="J57" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L57" s="8"/>
@@ -3494,18 +3570,18 @@
     <row r="58" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B58" s="18"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="10"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
       <c r="I58" s="17"/>
-      <c r="J58" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="29">
-        <f t="shared" si="3"/>
+      <c r="J58" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L58" s="8"/>
@@ -3526,18 +3602,18 @@
     <row r="59" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B59" s="18"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="10"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
       <c r="I59" s="17"/>
-      <c r="J59" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="29">
-        <f t="shared" si="3"/>
+      <c r="J59" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L59" s="8"/>
@@ -3558,18 +3634,18 @@
     <row r="60" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B60" s="18"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="10"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="17"/>
-      <c r="J60" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="29">
-        <f t="shared" si="3"/>
+      <c r="J60" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L60" s="8"/>
@@ -3590,18 +3666,18 @@
     <row r="61" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B61" s="18"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="10"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
       <c r="I61" s="17"/>
-      <c r="J61" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="29">
-        <f t="shared" si="3"/>
+      <c r="J61" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L61" s="8"/>
@@ -3622,18 +3698,18 @@
     <row r="62" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B62" s="18"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="10"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
       <c r="I62" s="17"/>
-      <c r="J62" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="29">
-        <f t="shared" si="3"/>
+      <c r="J62" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L62" s="8"/>
@@ -3654,18 +3730,18 @@
     <row r="63" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B63" s="18"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="10"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
       <c r="I63" s="17"/>
-      <c r="J63" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="29">
-        <f t="shared" si="3"/>
+      <c r="J63" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L63" s="8"/>
@@ -3686,18 +3762,18 @@
     <row r="64" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B64" s="18"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="D64" s="27"/>
       <c r="E64" s="10"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="17"/>
-      <c r="J64" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="29">
-        <f t="shared" si="3"/>
+      <c r="J64" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L64" s="8"/>
@@ -3718,18 +3794,18 @@
     <row r="65" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="D65" s="27"/>
       <c r="E65" s="10"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="16"/>
       <c r="I65" s="17"/>
-      <c r="J65" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="29">
-        <f t="shared" si="3"/>
+      <c r="J65" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L65" s="8"/>
@@ -3750,18 +3826,18 @@
     <row r="66" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B66" s="18"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
+      <c r="D66" s="27"/>
       <c r="E66" s="10"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
       <c r="I66" s="17"/>
-      <c r="J66" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="29">
-        <f t="shared" si="3"/>
+      <c r="J66" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L66" s="8"/>
@@ -3782,18 +3858,18 @@
     <row r="67" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B67" s="18"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="10"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
       <c r="I67" s="17"/>
-      <c r="J67" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="29">
-        <f t="shared" si="3"/>
+      <c r="J67" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L67" s="8"/>
@@ -3814,18 +3890,18 @@
     <row r="68" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B68" s="18"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+      <c r="D68" s="27"/>
       <c r="E68" s="10"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
       <c r="I68" s="17"/>
-      <c r="J68" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="29">
-        <f t="shared" si="3"/>
+      <c r="J68" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L68" s="8"/>
@@ -3846,18 +3922,18 @@
     <row r="69" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B69" s="18"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="10"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
       <c r="H69" s="16"/>
       <c r="I69" s="17"/>
-      <c r="J69" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="29">
-        <f t="shared" si="3"/>
+      <c r="J69" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L69" s="8"/>
@@ -3878,18 +3954,18 @@
     <row r="70" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B70" s="18"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="10"/>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
       <c r="I70" s="17"/>
-      <c r="J70" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="29">
-        <f t="shared" si="3"/>
+      <c r="J70" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L70" s="8"/>
@@ -3910,18 +3986,18 @@
     <row r="71" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B71" s="18"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="10"/>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
       <c r="I71" s="17"/>
-      <c r="J71" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="29">
-        <f t="shared" si="3"/>
+      <c r="J71" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L71" s="8"/>
@@ -3942,18 +4018,18 @@
     <row r="72" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B72" s="18"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="10"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
       <c r="I72" s="17"/>
-      <c r="J72" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="29">
-        <f t="shared" si="3"/>
+      <c r="J72" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L72" s="8"/>
@@ -3974,18 +4050,18 @@
     <row r="73" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B73" s="18"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="10"/>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
       <c r="I73" s="17"/>
-      <c r="J73" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="29">
-        <f t="shared" si="3"/>
+      <c r="J73" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L73" s="8"/>
@@ -4006,18 +4082,18 @@
     <row r="74" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B74" s="18"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="10"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
       <c r="I74" s="17"/>
-      <c r="J74" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="29">
-        <f t="shared" si="3"/>
+      <c r="J74" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L74" s="8"/>
@@ -4038,18 +4114,18 @@
     <row r="75" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B75" s="18"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="10"/>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
       <c r="I75" s="17"/>
-      <c r="J75" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="29">
-        <f t="shared" si="3"/>
+      <c r="J75" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L75" s="8"/>
@@ -4070,18 +4146,18 @@
     <row r="76" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B76" s="18"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="10"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="17"/>
-      <c r="J76" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="29">
-        <f t="shared" si="3"/>
+      <c r="J76" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L76" s="8"/>
@@ -4102,18 +4178,18 @@
     <row r="77" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B77" s="18"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="10"/>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
       <c r="I77" s="17"/>
-      <c r="J77" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="29">
-        <f t="shared" si="3"/>
+      <c r="J77" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L77" s="8"/>
@@ -4134,18 +4210,18 @@
     <row r="78" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B78" s="18"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="10"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="17"/>
-      <c r="J78" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="29">
-        <f t="shared" si="3"/>
+      <c r="J78" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L78" s="8"/>
@@ -4166,18 +4242,18 @@
     <row r="79" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B79" s="18"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="10"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
       <c r="I79" s="17"/>
-      <c r="J79" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="29">
-        <f t="shared" si="3"/>
+      <c r="J79" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L79" s="8"/>
@@ -4198,18 +4274,18 @@
     <row r="80" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B80" s="18"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+      <c r="D80" s="27"/>
       <c r="E80" s="10"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="17"/>
-      <c r="J80" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="29">
-        <f t="shared" si="3"/>
+      <c r="J80" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L80" s="8"/>
@@ -4230,18 +4306,18 @@
     <row r="81" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B81" s="18"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="D81" s="27"/>
       <c r="E81" s="10"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
       <c r="I81" s="17"/>
-      <c r="J81" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="29">
-        <f t="shared" si="3"/>
+      <c r="J81" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L81" s="8"/>
@@ -4262,18 +4338,18 @@
     <row r="82" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B82" s="18"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+      <c r="D82" s="27"/>
       <c r="E82" s="10"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
       <c r="I82" s="17"/>
-      <c r="J82" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K82" s="29">
-        <f t="shared" si="3"/>
+      <c r="J82" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L82" s="8"/>
@@ -4294,18 +4370,18 @@
     <row r="83" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B83" s="18"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+      <c r="D83" s="27"/>
       <c r="E83" s="10"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
       <c r="I83" s="17"/>
-      <c r="J83" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="29">
-        <f t="shared" si="3"/>
+      <c r="J83" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L83" s="8"/>
@@ -4326,18 +4402,18 @@
     <row r="84" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B84" s="18"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
+      <c r="D84" s="27"/>
       <c r="E84" s="10"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
       <c r="I84" s="17"/>
-      <c r="J84" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="29">
-        <f t="shared" si="3"/>
+      <c r="J84" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L84" s="8"/>
@@ -4358,18 +4434,18 @@
     <row r="85" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B85" s="18"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
+      <c r="D85" s="27"/>
       <c r="E85" s="10"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
       <c r="I85" s="17"/>
-      <c r="J85" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="29">
-        <f t="shared" si="3"/>
+      <c r="J85" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L85" s="8"/>
@@ -4390,18 +4466,18 @@
     <row r="86" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B86" s="18"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+      <c r="D86" s="27"/>
       <c r="E86" s="10"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
       <c r="I86" s="17"/>
-      <c r="J86" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="29">
-        <f t="shared" si="3"/>
+      <c r="J86" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L86" s="8"/>
@@ -4422,18 +4498,18 @@
     <row r="87" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B87" s="18"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+      <c r="D87" s="27"/>
       <c r="E87" s="10"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
       <c r="I87" s="17"/>
-      <c r="J87" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K87" s="29">
-        <f t="shared" si="3"/>
+      <c r="J87" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L87" s="8"/>
@@ -4454,18 +4530,18 @@
     <row r="88" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B88" s="18"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
+      <c r="D88" s="27"/>
       <c r="E88" s="10"/>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="17"/>
-      <c r="J88" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="29">
-        <f t="shared" si="3"/>
+      <c r="J88" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L88" s="8"/>
@@ -4486,18 +4562,18 @@
     <row r="89" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B89" s="18"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="10"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
       <c r="I89" s="17"/>
-      <c r="J89" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="29">
-        <f t="shared" si="3"/>
+      <c r="J89" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L89" s="8"/>
@@ -4518,18 +4594,18 @@
     <row r="90" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B90" s="18"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+      <c r="D90" s="27"/>
       <c r="E90" s="10"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
       <c r="I90" s="17"/>
-      <c r="J90" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K90" s="29">
-        <f t="shared" si="3"/>
+      <c r="J90" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L90" s="8"/>
@@ -4550,18 +4626,18 @@
     <row r="91" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B91" s="18"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="D91" s="27"/>
       <c r="E91" s="10"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
       <c r="I91" s="17"/>
-      <c r="J91" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K91" s="29">
-        <f t="shared" si="3"/>
+      <c r="J91" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L91" s="8"/>
@@ -4582,18 +4658,18 @@
     <row r="92" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B92" s="18"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="10"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="17"/>
-      <c r="J92" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K92" s="29">
-        <f t="shared" si="3"/>
+      <c r="J92" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L92" s="8"/>
@@ -4614,18 +4690,18 @@
     <row r="93" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B93" s="18"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+      <c r="D93" s="27"/>
       <c r="E93" s="10"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
       <c r="I93" s="17"/>
-      <c r="J93" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K93" s="29">
-        <f t="shared" si="3"/>
+      <c r="J93" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L93" s="8"/>
@@ -4646,18 +4722,18 @@
     <row r="94" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B94" s="18"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="10"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
       <c r="I94" s="17"/>
-      <c r="J94" s="29">
-        <f t="shared" ref="J94:J118" si="4">IFERROR(F94/(F94+G94),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K94" s="29">
-        <f t="shared" ref="K94:K118" si="5">IFERROR(F94/(F94+I94),0)</f>
+      <c r="J94" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L94" s="8"/>
@@ -4678,17 +4754,17 @@
     <row r="95" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B95" s="18"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+      <c r="D95" s="27"/>
       <c r="E95" s="10"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="I95" s="17"/>
-      <c r="J95" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K95" s="29">
+      <c r="J95" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4710,17 +4786,17 @@
     <row r="96" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B96" s="18"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
+      <c r="D96" s="27"/>
       <c r="E96" s="10"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
       <c r="I96" s="17"/>
-      <c r="J96" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="29">
+      <c r="J96" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4742,17 +4818,17 @@
     <row r="97" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B97" s="18"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
+      <c r="D97" s="27"/>
       <c r="E97" s="10"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="17"/>
-      <c r="J97" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K97" s="29">
+      <c r="J97" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4774,17 +4850,17 @@
     <row r="98" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B98" s="18"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+      <c r="D98" s="27"/>
       <c r="E98" s="10"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
       <c r="I98" s="17"/>
-      <c r="J98" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="29">
+      <c r="J98" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4806,17 +4882,17 @@
     <row r="99" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B99" s="18"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="D99" s="27"/>
       <c r="E99" s="10"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
       <c r="I99" s="17"/>
-      <c r="J99" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K99" s="29">
+      <c r="J99" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4838,18 +4914,18 @@
     <row r="100" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B100" s="18"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="D100" s="27"/>
       <c r="E100" s="10"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
       <c r="I100" s="17"/>
-      <c r="J100" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="29">
-        <f t="shared" si="5"/>
+      <c r="J100" s="38">
+        <f t="shared" ref="J100:J112" si="6">IFERROR(F100/(F100+G100),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="38">
+        <f t="shared" ref="K100:K112" si="7">IFERROR(F100/(F100+I100),0)</f>
         <v>0</v>
       </c>
       <c r="L100" s="8"/>
@@ -4870,18 +4946,18 @@
     <row r="101" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B101" s="18"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+      <c r="D101" s="27"/>
       <c r="E101" s="10"/>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
       <c r="I101" s="17"/>
-      <c r="J101" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K101" s="29">
-        <f t="shared" si="5"/>
+      <c r="J101" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L101" s="8"/>
@@ -4902,18 +4978,18 @@
     <row r="102" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B102" s="18"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+      <c r="D102" s="27"/>
       <c r="E102" s="10"/>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
       <c r="I102" s="17"/>
-      <c r="J102" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K102" s="29">
-        <f t="shared" si="5"/>
+      <c r="J102" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L102" s="8"/>
@@ -4934,18 +5010,18 @@
     <row r="103" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B103" s="18"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="10"/>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
       <c r="I103" s="17"/>
-      <c r="J103" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K103" s="29">
-        <f t="shared" si="5"/>
+      <c r="J103" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L103" s="8"/>
@@ -4966,18 +5042,18 @@
     <row r="104" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B104" s="18"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="10"/>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
       <c r="I104" s="17"/>
-      <c r="J104" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K104" s="29">
-        <f t="shared" si="5"/>
+      <c r="J104" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L104" s="8"/>
@@ -4998,18 +5074,18 @@
     <row r="105" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B105" s="18"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="D105" s="27"/>
       <c r="E105" s="10"/>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
       <c r="I105" s="17"/>
-      <c r="J105" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K105" s="29">
-        <f t="shared" si="5"/>
+      <c r="J105" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L105" s="8"/>
@@ -5030,18 +5106,18 @@
     <row r="106" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B106" s="18"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
+      <c r="D106" s="27"/>
       <c r="E106" s="10"/>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
       <c r="I106" s="17"/>
-      <c r="J106" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K106" s="29">
-        <f t="shared" si="5"/>
+      <c r="J106" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L106" s="8"/>
@@ -5062,18 +5138,18 @@
     <row r="107" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B107" s="18"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
+      <c r="D107" s="27"/>
       <c r="E107" s="10"/>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
       <c r="I107" s="17"/>
-      <c r="J107" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K107" s="29">
-        <f t="shared" si="5"/>
+      <c r="J107" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K107" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L107" s="8"/>
@@ -5094,18 +5170,18 @@
     <row r="108" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B108" s="18"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
+      <c r="D108" s="27"/>
       <c r="E108" s="10"/>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
       <c r="I108" s="17"/>
-      <c r="J108" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K108" s="29">
-        <f t="shared" si="5"/>
+      <c r="J108" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L108" s="8"/>
@@ -5126,18 +5202,18 @@
     <row r="109" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B109" s="18"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="D109" s="27"/>
       <c r="E109" s="10"/>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
       <c r="I109" s="17"/>
-      <c r="J109" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K109" s="29">
-        <f t="shared" si="5"/>
+      <c r="J109" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L109" s="8"/>
@@ -5158,18 +5234,18 @@
     <row r="110" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B110" s="18"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+      <c r="D110" s="27"/>
       <c r="E110" s="10"/>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
       <c r="I110" s="17"/>
-      <c r="J110" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K110" s="29">
-        <f t="shared" si="5"/>
+      <c r="J110" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K110" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L110" s="8"/>
@@ -5190,18 +5266,18 @@
     <row r="111" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B111" s="18"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="D111" s="27"/>
       <c r="E111" s="10"/>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
       <c r="I111" s="17"/>
-      <c r="J111" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K111" s="29">
-        <f t="shared" si="5"/>
+      <c r="J111" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K111" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L111" s="8"/>
@@ -5222,18 +5298,18 @@
     <row r="112" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B112" s="18"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+      <c r="D112" s="27"/>
       <c r="E112" s="10"/>
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
       <c r="I112" s="17"/>
-      <c r="J112" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K112" s="29">
-        <f t="shared" si="5"/>
+      <c r="J112" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="38">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L112" s="8"/>
@@ -5254,18 +5330,18 @@
     <row r="113" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B113" s="18"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+      <c r="D113" s="27"/>
       <c r="E113" s="10"/>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
       <c r="I113" s="17"/>
-      <c r="J113" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K113" s="29">
-        <f t="shared" si="5"/>
+      <c r="J113" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="38">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L113" s="8"/>
@@ -5284,23 +5360,17 @@
       <c r="Y113" s="3"/>
     </row>
     <row r="114" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B114" s="18"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K114" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L114" s="8"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
@@ -5316,23 +5386,17 @@
       <c r="Y114" s="3"/>
     </row>
     <row r="115" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B115" s="18"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K115" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L115" s="8"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
@@ -5348,23 +5412,17 @@
       <c r="Y115" s="3"/>
     </row>
     <row r="116" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B116" s="18"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K116" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L116" s="8"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
@@ -5380,23 +5438,17 @@
       <c r="Y116" s="3"/>
     </row>
     <row r="117" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B117" s="18"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K117" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L117" s="8"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
@@ -5412,23 +5464,17 @@
       <c r="Y117" s="3"/>
     </row>
     <row r="118" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B118" s="18"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K118" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L118" s="8"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
@@ -5444,23 +5490,17 @@
       <c r="Y118" s="3"/>
     </row>
     <row r="119" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B119" s="18"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K119" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L119" s="8"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
@@ -5476,23 +5516,17 @@
       <c r="Y119" s="3"/>
     </row>
     <row r="120" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B120" s="18"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K120" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L120" s="8"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
@@ -5508,23 +5542,17 @@
       <c r="Y120" s="3"/>
     </row>
     <row r="121" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B121" s="18"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K121" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L121" s="8"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
@@ -5540,23 +5568,17 @@
       <c r="Y121" s="3"/>
     </row>
     <row r="122" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B122" s="18"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K122" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L122" s="8"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
@@ -5572,23 +5594,17 @@
       <c r="Y122" s="3"/>
     </row>
     <row r="123" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B123" s="18"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K123" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L123" s="8"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
@@ -5604,23 +5620,17 @@
       <c r="Y123" s="3"/>
     </row>
     <row r="124" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B124" s="18"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K124" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L124" s="8"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
@@ -5636,23 +5646,17 @@
       <c r="Y124" s="3"/>
     </row>
     <row r="125" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B125" s="18"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="17"/>
-      <c r="J125" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K125" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L125" s="8"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
@@ -5668,23 +5672,17 @@
       <c r="Y125" s="3"/>
     </row>
     <row r="126" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B126" s="18"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K126" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L126" s="8"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
@@ -5700,23 +5698,17 @@
       <c r="Y126" s="3"/>
     </row>
     <row r="127" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B127" s="18"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K127" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L127" s="8"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
@@ -5732,23 +5724,17 @@
       <c r="Y127" s="3"/>
     </row>
     <row r="128" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B128" s="18"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K128" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L128" s="8"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
@@ -5764,23 +5750,17 @@
       <c r="Y128" s="3"/>
     </row>
     <row r="129" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B129" s="18"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K129" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L129" s="8"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
@@ -5796,23 +5776,17 @@
       <c r="Y129" s="3"/>
     </row>
     <row r="130" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B130" s="18"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K130" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L130" s="8"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
@@ -5828,23 +5802,17 @@
       <c r="Y130" s="3"/>
     </row>
     <row r="131" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B131" s="18"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K131" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L131" s="8"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
@@ -5860,23 +5828,17 @@
       <c r="Y131" s="3"/>
     </row>
     <row r="132" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B132" s="18"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K132" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L132" s="8"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
@@ -5892,23 +5854,17 @@
       <c r="Y132" s="3"/>
     </row>
     <row r="133" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B133" s="18"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="17"/>
-      <c r="J133" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K133" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L133" s="8"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
@@ -5924,23 +5880,17 @@
       <c r="Y133" s="3"/>
     </row>
     <row r="134" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B134" s="18"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K134" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L134" s="8"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
@@ -5956,23 +5906,17 @@
       <c r="Y134" s="3"/>
     </row>
     <row r="135" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B135" s="18"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="17"/>
-      <c r="J135" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K135" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L135" s="8"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
@@ -6215,13 +6159,8 @@
       <c r="R144" s="3"/>
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
-      <c r="U144" s="3"/>
-      <c r="V144" s="3"/>
-      <c r="W144" s="3"/>
-      <c r="X144" s="3"/>
-      <c r="Y144" s="3"/>
-    </row>
-    <row r="145" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -6241,13 +6180,8 @@
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
-      <c r="U145" s="3"/>
-      <c r="V145" s="3"/>
-      <c r="W145" s="3"/>
-      <c r="X145" s="3"/>
-      <c r="Y145" s="3"/>
-    </row>
-    <row r="146" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -6267,13 +6201,8 @@
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
       <c r="T146" s="3"/>
-      <c r="U146" s="3"/>
-      <c r="V146" s="3"/>
-      <c r="W146" s="3"/>
-      <c r="X146" s="3"/>
-      <c r="Y146" s="3"/>
-    </row>
-    <row r="147" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -6293,563 +6222,6 @@
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
-      <c r="U147" s="3"/>
-      <c r="V147" s="3"/>
-      <c r="W147" s="3"/>
-      <c r="X147" s="3"/>
-      <c r="Y147" s="3"/>
-    </row>
-    <row r="148" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
-      <c r="L148" s="3"/>
-      <c r="M148" s="3"/>
-      <c r="N148" s="3"/>
-      <c r="O148" s="3"/>
-      <c r="P148" s="3"/>
-      <c r="Q148" s="3"/>
-      <c r="R148" s="3"/>
-      <c r="S148" s="3"/>
-      <c r="T148" s="3"/>
-      <c r="U148" s="3"/>
-      <c r="V148" s="3"/>
-      <c r="W148" s="3"/>
-      <c r="X148" s="3"/>
-      <c r="Y148" s="3"/>
-    </row>
-    <row r="149" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3"/>
-      <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
-      <c r="P149" s="3"/>
-      <c r="Q149" s="3"/>
-      <c r="R149" s="3"/>
-      <c r="S149" s="3"/>
-      <c r="T149" s="3"/>
-      <c r="U149" s="3"/>
-      <c r="V149" s="3"/>
-      <c r="W149" s="3"/>
-      <c r="X149" s="3"/>
-      <c r="Y149" s="3"/>
-    </row>
-    <row r="150" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
-      <c r="N150" s="3"/>
-      <c r="O150" s="3"/>
-      <c r="P150" s="3"/>
-      <c r="Q150" s="3"/>
-      <c r="R150" s="3"/>
-      <c r="S150" s="3"/>
-      <c r="T150" s="3"/>
-      <c r="U150" s="3"/>
-      <c r="V150" s="3"/>
-      <c r="W150" s="3"/>
-      <c r="X150" s="3"/>
-      <c r="Y150" s="3"/>
-    </row>
-    <row r="151" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="3"/>
-      <c r="M151" s="3"/>
-      <c r="N151" s="3"/>
-      <c r="O151" s="3"/>
-      <c r="P151" s="3"/>
-      <c r="Q151" s="3"/>
-      <c r="R151" s="3"/>
-      <c r="S151" s="3"/>
-      <c r="T151" s="3"/>
-      <c r="U151" s="3"/>
-      <c r="V151" s="3"/>
-      <c r="W151" s="3"/>
-      <c r="X151" s="3"/>
-      <c r="Y151" s="3"/>
-    </row>
-    <row r="152" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
-      <c r="L152" s="3"/>
-      <c r="M152" s="3"/>
-      <c r="N152" s="3"/>
-      <c r="O152" s="3"/>
-      <c r="P152" s="3"/>
-      <c r="Q152" s="3"/>
-      <c r="R152" s="3"/>
-      <c r="S152" s="3"/>
-      <c r="T152" s="3"/>
-      <c r="U152" s="3"/>
-      <c r="V152" s="3"/>
-      <c r="W152" s="3"/>
-      <c r="X152" s="3"/>
-      <c r="Y152" s="3"/>
-    </row>
-    <row r="153" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
-      <c r="L153" s="3"/>
-      <c r="M153" s="3"/>
-      <c r="N153" s="3"/>
-      <c r="O153" s="3"/>
-      <c r="P153" s="3"/>
-      <c r="Q153" s="3"/>
-      <c r="R153" s="3"/>
-      <c r="S153" s="3"/>
-      <c r="T153" s="3"/>
-      <c r="U153" s="3"/>
-      <c r="V153" s="3"/>
-      <c r="W153" s="3"/>
-      <c r="X153" s="3"/>
-      <c r="Y153" s="3"/>
-    </row>
-    <row r="154" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
-      <c r="L154" s="3"/>
-      <c r="M154" s="3"/>
-      <c r="N154" s="3"/>
-      <c r="O154" s="3"/>
-      <c r="P154" s="3"/>
-      <c r="Q154" s="3"/>
-      <c r="R154" s="3"/>
-      <c r="S154" s="3"/>
-      <c r="T154" s="3"/>
-      <c r="U154" s="3"/>
-      <c r="V154" s="3"/>
-      <c r="W154" s="3"/>
-      <c r="X154" s="3"/>
-      <c r="Y154" s="3"/>
-    </row>
-    <row r="155" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
-      <c r="L155" s="3"/>
-      <c r="M155" s="3"/>
-      <c r="N155" s="3"/>
-      <c r="O155" s="3"/>
-      <c r="P155" s="3"/>
-      <c r="Q155" s="3"/>
-      <c r="R155" s="3"/>
-      <c r="S155" s="3"/>
-      <c r="T155" s="3"/>
-      <c r="U155" s="3"/>
-      <c r="V155" s="3"/>
-      <c r="W155" s="3"/>
-      <c r="X155" s="3"/>
-      <c r="Y155" s="3"/>
-    </row>
-    <row r="156" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
-      <c r="K156" s="3"/>
-      <c r="L156" s="3"/>
-      <c r="M156" s="3"/>
-      <c r="N156" s="3"/>
-      <c r="O156" s="3"/>
-      <c r="P156" s="3"/>
-      <c r="Q156" s="3"/>
-      <c r="R156" s="3"/>
-      <c r="S156" s="3"/>
-      <c r="T156" s="3"/>
-      <c r="U156" s="3"/>
-      <c r="V156" s="3"/>
-      <c r="W156" s="3"/>
-      <c r="X156" s="3"/>
-      <c r="Y156" s="3"/>
-    </row>
-    <row r="157" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
-      <c r="L157" s="3"/>
-      <c r="M157" s="3"/>
-      <c r="N157" s="3"/>
-      <c r="O157" s="3"/>
-      <c r="P157" s="3"/>
-      <c r="Q157" s="3"/>
-      <c r="R157" s="3"/>
-      <c r="S157" s="3"/>
-      <c r="T157" s="3"/>
-      <c r="U157" s="3"/>
-      <c r="V157" s="3"/>
-      <c r="W157" s="3"/>
-      <c r="X157" s="3"/>
-      <c r="Y157" s="3"/>
-    </row>
-    <row r="158" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
-      <c r="K158" s="3"/>
-      <c r="L158" s="3"/>
-      <c r="M158" s="3"/>
-      <c r="N158" s="3"/>
-      <c r="O158" s="3"/>
-      <c r="P158" s="3"/>
-      <c r="Q158" s="3"/>
-      <c r="R158" s="3"/>
-      <c r="S158" s="3"/>
-      <c r="T158" s="3"/>
-      <c r="U158" s="3"/>
-      <c r="V158" s="3"/>
-      <c r="W158" s="3"/>
-      <c r="X158" s="3"/>
-      <c r="Y158" s="3"/>
-    </row>
-    <row r="159" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
-      <c r="L159" s="3"/>
-      <c r="M159" s="3"/>
-      <c r="N159" s="3"/>
-      <c r="O159" s="3"/>
-      <c r="P159" s="3"/>
-      <c r="Q159" s="3"/>
-      <c r="R159" s="3"/>
-      <c r="S159" s="3"/>
-      <c r="T159" s="3"/>
-      <c r="U159" s="3"/>
-      <c r="V159" s="3"/>
-      <c r="W159" s="3"/>
-      <c r="X159" s="3"/>
-      <c r="Y159" s="3"/>
-    </row>
-    <row r="160" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
-      <c r="L160" s="3"/>
-      <c r="M160" s="3"/>
-      <c r="N160" s="3"/>
-      <c r="O160" s="3"/>
-      <c r="P160" s="3"/>
-      <c r="Q160" s="3"/>
-      <c r="R160" s="3"/>
-      <c r="S160" s="3"/>
-      <c r="T160" s="3"/>
-      <c r="U160" s="3"/>
-      <c r="V160" s="3"/>
-      <c r="W160" s="3"/>
-      <c r="X160" s="3"/>
-      <c r="Y160" s="3"/>
-    </row>
-    <row r="161" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
-      <c r="L161" s="3"/>
-      <c r="M161" s="3"/>
-      <c r="N161" s="3"/>
-      <c r="O161" s="3"/>
-      <c r="P161" s="3"/>
-      <c r="Q161" s="3"/>
-      <c r="R161" s="3"/>
-      <c r="S161" s="3"/>
-      <c r="T161" s="3"/>
-      <c r="U161" s="3"/>
-      <c r="V161" s="3"/>
-      <c r="W161" s="3"/>
-      <c r="X161" s="3"/>
-      <c r="Y161" s="3"/>
-    </row>
-    <row r="162" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
-      <c r="L162" s="3"/>
-      <c r="M162" s="3"/>
-      <c r="N162" s="3"/>
-      <c r="O162" s="3"/>
-      <c r="P162" s="3"/>
-      <c r="Q162" s="3"/>
-      <c r="R162" s="3"/>
-      <c r="S162" s="3"/>
-      <c r="T162" s="3"/>
-      <c r="U162" s="3"/>
-      <c r="V162" s="3"/>
-      <c r="W162" s="3"/>
-      <c r="X162" s="3"/>
-      <c r="Y162" s="3"/>
-    </row>
-    <row r="163" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
-      <c r="L163" s="3"/>
-      <c r="M163" s="3"/>
-      <c r="N163" s="3"/>
-      <c r="O163" s="3"/>
-      <c r="P163" s="3"/>
-      <c r="Q163" s="3"/>
-      <c r="R163" s="3"/>
-      <c r="S163" s="3"/>
-      <c r="T163" s="3"/>
-      <c r="U163" s="3"/>
-      <c r="V163" s="3"/>
-      <c r="W163" s="3"/>
-      <c r="X163" s="3"/>
-      <c r="Y163" s="3"/>
-    </row>
-    <row r="164" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
-      <c r="L164" s="3"/>
-      <c r="M164" s="3"/>
-      <c r="N164" s="3"/>
-      <c r="O164" s="3"/>
-      <c r="P164" s="3"/>
-      <c r="Q164" s="3"/>
-      <c r="R164" s="3"/>
-      <c r="S164" s="3"/>
-      <c r="T164" s="3"/>
-      <c r="U164" s="3"/>
-      <c r="V164" s="3"/>
-      <c r="W164" s="3"/>
-      <c r="X164" s="3"/>
-      <c r="Y164" s="3"/>
-    </row>
-    <row r="165" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
-      <c r="O165" s="3"/>
-      <c r="P165" s="3"/>
-      <c r="Q165" s="3"/>
-      <c r="R165" s="3"/>
-      <c r="S165" s="3"/>
-      <c r="T165" s="3"/>
-      <c r="U165" s="3"/>
-      <c r="V165" s="3"/>
-      <c r="W165" s="3"/>
-      <c r="X165" s="3"/>
-      <c r="Y165" s="3"/>
-    </row>
-    <row r="166" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3"/>
-      <c r="N166" s="3"/>
-      <c r="O166" s="3"/>
-      <c r="P166" s="3"/>
-      <c r="Q166" s="3"/>
-      <c r="R166" s="3"/>
-      <c r="S166" s="3"/>
-      <c r="T166" s="3"/>
-    </row>
-    <row r="167" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
-      <c r="L167" s="3"/>
-      <c r="M167" s="3"/>
-      <c r="N167" s="3"/>
-      <c r="O167" s="3"/>
-      <c r="P167" s="3"/>
-      <c r="Q167" s="3"/>
-      <c r="R167" s="3"/>
-      <c r="S167" s="3"/>
-      <c r="T167" s="3"/>
-    </row>
-    <row r="168" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
-      <c r="L168" s="3"/>
-      <c r="M168" s="3"/>
-      <c r="N168" s="3"/>
-      <c r="O168" s="3"/>
-      <c r="P168" s="3"/>
-      <c r="Q168" s="3"/>
-      <c r="R168" s="3"/>
-      <c r="S168" s="3"/>
-      <c r="T168" s="3"/>
-    </row>
-    <row r="169" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
-      <c r="L169" s="3"/>
-      <c r="M169" s="3"/>
-      <c r="N169" s="3"/>
-      <c r="O169" s="3"/>
-      <c r="P169" s="3"/>
-      <c r="Q169" s="3"/>
-      <c r="R169" s="3"/>
-      <c r="S169" s="3"/>
-      <c r="T169" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
